--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,45 +40,39 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>worst</t>
   </si>
   <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
@@ -109,46 +103,49 @@
     <t>great</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>watching</t>
+    <t>highly</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
-    <t>’</t>
-  </si>
-  <si>
     <t>netflix</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>…</t>
@@ -520,10 +517,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -581,13 +578,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9615384615384616</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -599,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -631,13 +628,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9393939393939394</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -649,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>0.9</v>
@@ -681,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -699,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K5">
         <v>0.88</v>
@@ -731,13 +728,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -749,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.7719298245614035</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -773,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -781,7 +778,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.8125</v>
       </c>
       <c r="C7">
         <v>13</v>
@@ -799,19 +796,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.64</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L7">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M7">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -823,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -831,13 +828,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -852,16 +849,16 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.6206896551724138</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L8">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -873,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,16 +899,16 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.5833333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -923,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -931,38 +928,38 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7058823529411765</v>
+        <v>0.675</v>
       </c>
       <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="L10">
         <v>12</v>
       </c>
-      <c r="D10">
+      <c r="M10">
         <v>12</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10">
-        <v>0.5185185185185185</v>
-      </c>
-      <c r="L10">
-        <v>14</v>
-      </c>
-      <c r="M10">
-        <v>14</v>
-      </c>
       <c r="N10">
         <v>1</v>
       </c>
@@ -973,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -981,13 +978,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -999,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.4242424242424243</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1023,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1031,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.675</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="C12">
         <v>27</v>
@@ -1049,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.3541666666666667</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L12">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1073,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1081,13 +1078,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5957446808510638</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1099,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="L13">
         <v>19</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L13">
-        <v>12</v>
-      </c>
       <c r="M13">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1123,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1131,13 +1128,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5714285714285714</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1149,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.2377049180327869</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L14">
-        <v>261</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>261</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1173,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>837</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1181,13 +1178,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5507246376811594</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1199,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.1529411764705882</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1223,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1231,7 +1228,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5217391304347826</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -1249,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.03812316715542522</v>
+        <v>0.226775956284153</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1273,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>328</v>
+        <v>849</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1281,13 +1278,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1299,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.03012048192771084</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1323,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>644</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1331,13 +1328,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1349,13 +1346,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.02432778489116517</v>
+        <v>0.0286144578313253</v>
       </c>
       <c r="L18">
         <v>19</v>
@@ -1373,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>762</v>
+        <v>645</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1381,125 +1378,101 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4285714285714285</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="C19">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>285</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>0.02592592592592593</v>
+      </c>
+      <c r="L19">
+        <v>14</v>
+      </c>
+      <c r="M19">
+        <v>14</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20">
+        <v>0.0211038961038961</v>
+      </c>
+      <c r="L20">
+        <v>13</v>
+      </c>
+      <c r="M20">
+        <v>13</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K19">
-        <v>0.02222222222222222</v>
-      </c>
-      <c r="L19">
-        <v>12</v>
-      </c>
-      <c r="M19">
-        <v>12</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
+      <c r="K21">
+        <v>0.01440092165898618</v>
+      </c>
+      <c r="L21">
         <v>25</v>
       </c>
-      <c r="B20">
-        <v>0.4102564102564102</v>
-      </c>
-      <c r="C20">
-        <v>16</v>
-      </c>
-      <c r="D20">
-        <v>16</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>23</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20">
-        <v>0.01324884792626728</v>
-      </c>
-      <c r="L20">
-        <v>23</v>
-      </c>
-      <c r="M20">
-        <v>23</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.0436241610738255</v>
-      </c>
-      <c r="C21">
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <v>14</v>
-      </c>
-      <c r="E21">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F21">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>285</v>
+      <c r="M21">
+        <v>25</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1711</v>
       </c>
     </row>
   </sheetData>
